--- a/results/data/FW_masterpie.xlsx
+++ b/results/data/FW_masterpie.xlsx
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>55960.97799999997</v>
+        <v>55960.978</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>89299.25300000001</v>
+        <v>89299.253</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>34269.59500000002</v>
+        <v>34342.29500000001</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -454,7 +454,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>222082.5850000001</v>
+        <v>222082.585</v>
       </c>
     </row>
   </sheetData>
